--- a/EclipseJDBC/JDBC/src/app1/students.xlsx
+++ b/EclipseJDBC/JDBC/src/app1/students.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\developmentsoftwares\MicrosoftExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AdvancedJava798\EclipseJDBC\JDBC\src\app1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C71AA11A-9DA1-4CFB-BE22-61EA323E1C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25D9E3A3-BE8D-4D04-8C11-F8218826AE90}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,28 +36,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>vijay</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>kumar</t>
-  </si>
-  <si>
     <t>david</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>warner</t>
+  </si>
+  <si>
+    <t>goodman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,16 +402,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024C72EE-3355-4CE4-A7B4-0DBBB7C95644}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -423,37 +425,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>22</v>
       </c>
-      <c r="C2">
-        <v>5.6</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>23</v>
-      </c>
       <c r="C3">
-        <v>4.5999999999999996</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>55</v>
-      </c>
       <c r="C4">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/EclipseJDBC/JDBC/src/app1/students.xlsx
+++ b/EclipseJDBC/JDBC/src/app1/students.xlsx
@@ -39,6 +39,12 @@
     <t>david</t>
   </si>
   <si>
+    <t>warner</t>
+  </si>
+  <si>
+    <t>goodman</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -46,12 +52,6 @@
   </si>
   <si>
     <t>age</t>
-  </si>
-  <si>
-    <t>warner</t>
-  </si>
-  <si>
-    <t>goodman</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,13 +416,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -441,7 +441,7 @@
         <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>55</v>
@@ -452,7 +452,7 @@
         <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>66</v>
